--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33754.49535845644</v>
+        <v>33754.49535845648</v>
       </c>
     </row>
     <row r="7">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18598.46852845334</v>
+        <v>-18598.46852845333</v>
       </c>
       <c r="C6" t="n">
-        <v>-18598.46852845334</v>
+        <v>-18598.46852845333</v>
       </c>
       <c r="D6" t="n">
-        <v>-18598.46852845334</v>
+        <v>-18598.46852845333</v>
       </c>
       <c r="E6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="F6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="G6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="H6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="I6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="J6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="K6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="L6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="M6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="N6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="O6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="P6" t="n">
-        <v>15029.13147154666</v>
+        <v>15029.13147154667</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33754.49535845648</v>
+        <v>21810.26677738631</v>
       </c>
     </row>
     <row r="7">
@@ -26325,7 +26325,7 @@
         <v>33815.54581098</v>
       </c>
       <c r="F2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581097999</v>
       </c>
       <c r="G2" t="n">
         <v>33815.54581098</v>
@@ -26334,7 +26334,7 @@
         <v>33815.54581098</v>
       </c>
       <c r="I2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="J2" t="n">
         <v>33815.54581098</v>
@@ -26346,7 +26346,7 @@
         <v>33815.54581098</v>
       </c>
       <c r="M2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="N2" t="n">
         <v>33815.54581098</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18598.46852845333</v>
+        <v>-20026.06202259824</v>
       </c>
       <c r="C6" t="n">
-        <v>-18598.46852845333</v>
+        <v>-20026.06202259824</v>
       </c>
       <c r="D6" t="n">
-        <v>-18598.46852845333</v>
+        <v>-20026.06202259824</v>
       </c>
       <c r="E6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="F6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740175</v>
       </c>
       <c r="G6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="H6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="I6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740177</v>
       </c>
       <c r="J6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="K6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="L6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="M6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740177</v>
       </c>
       <c r="N6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="O6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
       <c r="P6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740176</v>
       </c>
     </row>
   </sheetData>
